--- a/P1/Assets/Resources/Data/ExcelData/StageData.xlsx
+++ b/P1/Assets/Resources/Data/ExcelData/StageData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="10.105.234.53029"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="590" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="580" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="StageInfoData" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,13 @@
   <definedNames/>
   <calcPr calcId="152511"/>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors/>
+  <commentList/>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1622,7 +1629,7 @@
       <color rgb="FF7F7F7F"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1682,61 +1689,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -1754,61 +1707,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -1825,7 +1724,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1840,7 +1738,6 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1849,7 +1746,6 @@
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1858,7 +1754,6 @@
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1867,7 +1762,6 @@
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1882,7 +1776,6 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1897,7 +1790,6 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -1912,7 +1804,6 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1921,7 +1812,6 @@
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1932,7 +1822,6 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -2011,10 +1900,46 @@
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -2023,61 +1948,25 @@
     <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
@@ -2409,7 +2298,7 @@
   <dimension ref="A1:L100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -2980,6 +2869,9 @@
       <c r="K15" s="0">
         <v>1494</v>
       </c>
+      <c r="L15" s="0" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="0">
@@ -3015,6 +2907,9 @@
       <c r="K16" s="0">
         <v>1665</v>
       </c>
+      <c r="L16" s="0" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="0">
@@ -3050,6 +2945,9 @@
       <c r="K17" s="0">
         <v>1854</v>
       </c>
+      <c r="L17" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="0">
@@ -3085,6 +2983,9 @@
       <c r="K18" s="0">
         <v>2061</v>
       </c>
+      <c r="L18" s="0" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="0">
@@ -3120,6 +3021,9 @@
       <c r="K19" s="0">
         <v>2295</v>
       </c>
+      <c r="L19" s="0" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="0">
@@ -3155,6 +3059,9 @@
       <c r="K20" s="0">
         <v>2556</v>
       </c>
+      <c r="L20" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="0">
@@ -3190,6 +3097,9 @@
       <c r="K21" s="0">
         <v>2844</v>
       </c>
+      <c r="L21" s="0" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="0">
@@ -3225,6 +3135,9 @@
       <c r="K22" s="0">
         <v>3159</v>
       </c>
+      <c r="L22" s="0" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="0">
@@ -3260,6 +3173,9 @@
       <c r="K23" s="0">
         <v>3510</v>
       </c>
+      <c r="L23" s="0" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="0">
@@ -3295,6 +3211,9 @@
       <c r="K24" s="0">
         <v>3897</v>
       </c>
+      <c r="L24" s="0" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="0">
@@ -3330,6 +3249,9 @@
       <c r="K25" s="0">
         <v>4329</v>
       </c>
+      <c r="L25" s="0" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="0">
@@ -3365,6 +3287,9 @@
       <c r="K26" s="0">
         <v>4806</v>
       </c>
+      <c r="L26" s="0" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="0">
@@ -3400,6 +3325,9 @@
       <c r="K27" s="0">
         <v>5337</v>
       </c>
+      <c r="L27" s="0" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="0">
@@ -3435,6 +3363,9 @@
       <c r="K28" s="0">
         <v>5931</v>
       </c>
+      <c r="L28" s="0" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="0">
@@ -3470,6 +3401,9 @@
       <c r="K29" s="0">
         <v>6588</v>
       </c>
+      <c r="L29" s="0" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="0">
@@ -3505,6 +3439,9 @@
       <c r="K30" s="0">
         <v>7317</v>
       </c>
+      <c r="L30" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="0">
@@ -3540,6 +3477,9 @@
       <c r="K31" s="0">
         <v>8127</v>
       </c>
+      <c r="L31" s="0" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="0">
@@ -3575,6 +3515,9 @@
       <c r="K32" s="0">
         <v>7215</v>
       </c>
+      <c r="L32" s="0" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="0">
@@ -3610,6 +3553,9 @@
       <c r="K33" s="0">
         <v>7688</v>
       </c>
+      <c r="L33" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="0">
@@ -3645,6 +3591,9 @@
       <c r="K34" s="0">
         <v>8190</v>
       </c>
+      <c r="L34" s="0" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="0">
@@ -3680,6 +3629,9 @@
       <c r="K35" s="0">
         <v>8723</v>
       </c>
+      <c r="L35" s="0" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="0">
@@ -3715,6 +3667,9 @@
       <c r="K36" s="0">
         <v>9293</v>
       </c>
+      <c r="L36" s="0" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="0">
@@ -3750,6 +3705,9 @@
       <c r="K37" s="0">
         <v>9900</v>
       </c>
+      <c r="L37" s="0" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="0">
@@ -3785,6 +3743,9 @@
       <c r="K38" s="0">
         <v>10545</v>
       </c>
+      <c r="L38" s="0" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="0">
@@ -3820,6 +3781,9 @@
       <c r="K39" s="0">
         <v>11235</v>
       </c>
+      <c r="L39" s="0" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="0">
@@ -3855,6 +3819,9 @@
       <c r="K40" s="0">
         <v>11970</v>
       </c>
+      <c r="L40" s="0" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="0">
@@ -3890,6 +3857,9 @@
       <c r="K41" s="0">
         <v>12750</v>
       </c>
+      <c r="L41" s="0" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="0">
@@ -3925,6 +3895,9 @@
       <c r="K42" s="0">
         <v>13583</v>
       </c>
+      <c r="L42" s="0" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="0">
@@ -3960,6 +3933,9 @@
       <c r="K43" s="0">
         <v>14468</v>
       </c>
+      <c r="L43" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="0">
@@ -3995,6 +3971,9 @@
       <c r="K44" s="0">
         <v>15413</v>
       </c>
+      <c r="L44" s="0" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="0">
@@ -4030,6 +4009,9 @@
       <c r="K45" s="0">
         <v>16418</v>
       </c>
+      <c r="L45" s="0" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="0">
@@ -4065,6 +4047,9 @@
       <c r="K46" s="0">
         <v>17490</v>
       </c>
+      <c r="L46" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="0">
@@ -4100,6 +4085,9 @@
       <c r="K47" s="0">
         <v>18630</v>
       </c>
+      <c r="L47" s="0" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="0">
@@ -4135,6 +4123,9 @@
       <c r="K48" s="0">
         <v>19845</v>
       </c>
+      <c r="L48" s="0" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="0">
@@ -4170,6 +4161,9 @@
       <c r="K49" s="0">
         <v>21135</v>
       </c>
+      <c r="L49" s="0" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="0">
@@ -4205,6 +4199,9 @@
       <c r="K50" s="0">
         <v>22515</v>
       </c>
+      <c r="L50" s="0" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="0">
@@ -4239,6 +4236,9 @@
       </c>
       <c r="K51" s="0">
         <v>23985</v>
+      </c>
+      <c r="L51" s="0" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -4275,6 +4275,9 @@
       <c r="K52" s="0">
         <v>25545</v>
       </c>
+      <c r="L52" s="0" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="0">
@@ -4310,6 +4313,9 @@
       <c r="K53" s="0">
         <v>27210</v>
       </c>
+      <c r="L53" s="0" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="0">
@@ -4345,6 +4351,9 @@
       <c r="K54" s="0">
         <v>28980</v>
       </c>
+      <c r="L54" s="0" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="0">
@@ -4380,6 +4389,9 @@
       <c r="K55" s="0">
         <v>30870</v>
       </c>
+      <c r="L55" s="0" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="56" spans="1:12">
       <c r="A56" s="0">
@@ -4415,6 +4427,9 @@
       <c r="K56" s="0">
         <v>32880</v>
       </c>
+      <c r="L56" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="0">
@@ -4450,6 +4465,9 @@
       <c r="K57" s="0">
         <v>35018</v>
       </c>
+      <c r="L57" s="0" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="58" spans="1:12">
       <c r="A58" s="0">
@@ -4485,6 +4503,9 @@
       <c r="K58" s="0">
         <v>37298</v>
       </c>
+      <c r="L58" s="0" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="59" spans="1:12">
       <c r="A59" s="0">
@@ -4520,6 +4541,9 @@
       <c r="K59" s="0">
         <v>39728</v>
       </c>
+      <c r="L59" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="60" spans="1:12">
       <c r="A60" s="0">
@@ -4555,6 +4579,9 @@
       <c r="K60" s="0">
         <v>42315</v>
       </c>
+      <c r="L60" s="0" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="61" spans="1:12">
       <c r="A61" s="0">
@@ -4590,6 +4617,9 @@
       <c r="K61" s="0">
         <v>45068</v>
       </c>
+      <c r="L61" s="0" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="62" spans="1:12">
       <c r="A62" s="0">
@@ -4625,6 +4655,9 @@
       <c r="K62" s="0">
         <v>48000</v>
       </c>
+      <c r="L62" s="0" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="63" spans="1:12">
       <c r="A63" s="0">
@@ -4660,6 +4693,9 @@
       <c r="K63" s="0">
         <v>51120</v>
       </c>
+      <c r="L63" s="0" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="64" spans="1:12">
       <c r="A64" s="0">
@@ -4695,6 +4731,9 @@
       <c r="K64" s="0">
         <v>54450</v>
       </c>
+      <c r="L64" s="0" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="65" spans="1:12">
       <c r="A65" s="0">
@@ -4730,6 +4769,9 @@
       <c r="K65" s="0">
         <v>57990</v>
       </c>
+      <c r="L65" s="0" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="66" spans="1:12">
       <c r="A66" s="0">
@@ -4765,6 +4807,9 @@
       <c r="K66" s="0">
         <v>61763</v>
       </c>
+      <c r="L66" s="0" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="0">
@@ -4800,6 +4845,9 @@
       <c r="K67" s="0">
         <v>65783</v>
       </c>
+      <c r="L67" s="0" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="68" spans="1:12">
       <c r="A68" s="0">
@@ -4835,6 +4883,9 @@
       <c r="K68" s="0">
         <v>70065</v>
       </c>
+      <c r="L68" s="0" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="69" spans="1:12">
       <c r="A69" s="0">
@@ -4870,6 +4921,9 @@
       <c r="K69" s="0">
         <v>74625</v>
       </c>
+      <c r="L69" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="70" spans="1:12">
       <c r="A70" s="0">
@@ -4905,6 +4959,9 @@
       <c r="K70" s="0">
         <v>79478</v>
       </c>
+      <c r="L70" s="0" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="71" spans="1:12">
       <c r="A71" s="0">
@@ -4940,6 +4997,9 @@
       <c r="K71" s="0">
         <v>84645</v>
       </c>
+      <c r="L71" s="0" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="72" spans="1:12">
       <c r="A72" s="0">
@@ -4975,6 +5035,9 @@
       <c r="K72" s="0">
         <v>76297</v>
       </c>
+      <c r="L72" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="0">
@@ -5010,6 +5073,9 @@
       <c r="K73" s="0">
         <v>79352</v>
       </c>
+      <c r="L73" s="0" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="0">
@@ -5045,6 +5111,9 @@
       <c r="K74" s="0">
         <v>82531</v>
       </c>
+      <c r="L74" s="0" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="0">
@@ -5080,6 +5149,9 @@
       <c r="K75" s="0">
         <v>85833</v>
       </c>
+      <c r="L75" s="0" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="76" spans="1:12">
       <c r="A76" s="0">
@@ -5115,6 +5187,9 @@
       <c r="K76" s="0">
         <v>89271</v>
       </c>
+      <c r="L76" s="0" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="77" spans="1:12">
       <c r="A77" s="0">
@@ -5150,6 +5225,9 @@
       <c r="K77" s="0">
         <v>92846</v>
       </c>
+      <c r="L77" s="0" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="78" spans="1:12">
       <c r="A78" s="0">
@@ -5185,6 +5263,9 @@
       <c r="K78" s="0">
         <v>96564</v>
       </c>
+      <c r="L78" s="0" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="79" spans="1:12">
       <c r="A79" s="0">
@@ -5220,6 +5301,9 @@
       <c r="K79" s="0">
         <v>100432</v>
       </c>
+      <c r="L79" s="0" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="80" spans="1:12">
       <c r="A80" s="0">
@@ -5255,6 +5339,9 @@
       <c r="K80" s="0">
         <v>104455</v>
       </c>
+      <c r="L80" s="0" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="81" spans="1:12">
       <c r="A81" s="0">
@@ -5290,6 +5377,9 @@
       <c r="K81" s="0">
         <v>108635</v>
       </c>
+      <c r="L81" s="0" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="82" spans="1:12">
       <c r="A82" s="0">
@@ -5325,6 +5415,9 @@
       <c r="K82" s="0">
         <v>112983</v>
       </c>
+      <c r="L82" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="83" spans="1:12">
       <c r="A83" s="0">
@@ -5360,6 +5453,9 @@
       <c r="K83" s="0">
         <v>117507</v>
       </c>
+      <c r="L83" s="0" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="84" spans="1:12">
       <c r="A84" s="0">
@@ -5395,6 +5491,9 @@
       <c r="K84" s="0">
         <v>122213</v>
       </c>
+      <c r="L84" s="0" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="85" spans="1:12">
       <c r="A85" s="0">
@@ -5430,6 +5529,9 @@
       <c r="K85" s="0">
         <v>127108</v>
       </c>
+      <c r="L85" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="86" spans="1:12">
       <c r="A86" s="0">
@@ -5465,6 +5567,9 @@
       <c r="K86" s="0">
         <v>132197</v>
       </c>
+      <c r="L86" s="0" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="87" spans="1:12">
       <c r="A87" s="0">
@@ -5500,6 +5605,9 @@
       <c r="K87" s="0">
         <v>137488</v>
       </c>
+      <c r="L87" s="0" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="88" spans="1:12">
       <c r="A88" s="0">
@@ -5535,6 +5643,9 @@
       <c r="K88" s="0">
         <v>142994</v>
       </c>
+      <c r="L88" s="0" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="89" spans="1:12">
       <c r="A89" s="0">
@@ -5570,6 +5681,9 @@
       <c r="K89" s="0">
         <v>148714</v>
       </c>
+      <c r="L89" s="0" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="90" spans="1:12">
       <c r="A90" s="0">
@@ -5605,6 +5719,9 @@
       <c r="K90" s="0">
         <v>154668</v>
       </c>
+      <c r="L90" s="0" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="91" spans="1:12">
       <c r="A91" s="0">
@@ -5640,6 +5757,9 @@
       <c r="K91" s="0">
         <v>160856</v>
       </c>
+      <c r="L91" s="0" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="92" spans="1:12">
       <c r="A92" s="0">
@@ -5675,6 +5795,9 @@
       <c r="K92" s="0">
         <v>167291</v>
       </c>
+      <c r="L92" s="0" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="93" spans="1:12">
       <c r="A93" s="0">
@@ -5710,6 +5833,9 @@
       <c r="K93" s="0">
         <v>173986</v>
       </c>
+      <c r="L93" s="0" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="94" spans="1:12">
       <c r="A94" s="0">
@@ -5745,6 +5871,9 @@
       <c r="K94" s="0">
         <v>180947</v>
       </c>
+      <c r="L94" s="0" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="95" spans="1:12">
       <c r="A95" s="0">
@@ -5780,6 +5909,9 @@
       <c r="K95" s="0">
         <v>188188</v>
       </c>
+      <c r="L95" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="96" spans="1:12">
       <c r="A96" s="0">
@@ -5815,6 +5947,9 @@
       <c r="K96" s="0">
         <v>195722</v>
       </c>
+      <c r="L96" s="0" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="97" spans="1:12">
       <c r="A97" s="0">
@@ -5850,6 +5985,9 @@
       <c r="K97" s="0">
         <v>203554</v>
       </c>
+      <c r="L97" s="0" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="98" spans="1:12">
       <c r="A98" s="0">
@@ -5885,6 +6023,9 @@
       <c r="K98" s="0">
         <v>211699</v>
       </c>
+      <c r="L98" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="99" spans="1:12">
       <c r="A99" s="0">
@@ -5920,6 +6061,9 @@
       <c r="K99" s="0">
         <v>220168</v>
       </c>
+      <c r="L99" s="0" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="100" spans="1:12">
       <c r="A100" s="0">
@@ -5954,11 +6098,15 @@
       </c>
       <c r="K100" s="0">
         <v>228976</v>
+      </c>
+      <c r="L100" s="0" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>